--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnc-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnc</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnc</t>
-  </si>
-  <si>
-    <t>Egfr</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.878645</v>
+        <v>11.5183295</v>
       </c>
       <c r="H2">
-        <v>23.75729</v>
+        <v>23.036659</v>
       </c>
       <c r="I2">
-        <v>0.07103676969057639</v>
+        <v>0.06427717328589268</v>
       </c>
       <c r="J2">
-        <v>0.05446630490984555</v>
+        <v>0.05102762964987022</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>6.768855794929999</v>
+        <v>30.86495918388575</v>
       </c>
       <c r="R2">
-        <v>27.07542317971999</v>
+        <v>123.459836735543</v>
       </c>
       <c r="S2">
-        <v>0.0005448949957652531</v>
+        <v>0.002529174350029339</v>
       </c>
       <c r="T2">
-        <v>0.000309753037393154</v>
+        <v>0.001450345143168927</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.878645</v>
+        <v>11.5183295</v>
       </c>
       <c r="H3">
-        <v>23.75729</v>
+        <v>23.036659</v>
       </c>
       <c r="I3">
-        <v>0.07103676969057639</v>
+        <v>0.06427717328589268</v>
       </c>
       <c r="J3">
-        <v>0.05446630490984555</v>
+        <v>0.05102762964987022</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
-        <v>595.148801427675</v>
+        <v>577.0961247157425</v>
       </c>
       <c r="R3">
-        <v>3570.89280856605</v>
+        <v>3462.576748294455</v>
       </c>
       <c r="S3">
-        <v>0.04790966353228126</v>
+        <v>0.0472891186227266</v>
       </c>
       <c r="T3">
-        <v>0.0408523584771591</v>
+        <v>0.04067664029473601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.878645</v>
+        <v>11.5183295</v>
       </c>
       <c r="H4">
-        <v>23.75729</v>
+        <v>23.036659</v>
       </c>
       <c r="I4">
-        <v>0.07103676969057639</v>
+        <v>0.06427717328589268</v>
       </c>
       <c r="J4">
-        <v>0.05446630490984555</v>
+        <v>0.05102762964987022</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>4.812569668976667</v>
+        <v>3.206775882220167</v>
       </c>
       <c r="R4">
-        <v>28.87541801386</v>
+        <v>19.240655293321</v>
       </c>
       <c r="S4">
-        <v>0.0003874133544640163</v>
+        <v>0.000262773563356544</v>
       </c>
       <c r="T4">
-        <v>0.000330345656148028</v>
+        <v>0.0002260297088828228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.878645</v>
+        <v>11.5183295</v>
       </c>
       <c r="H5">
-        <v>23.75729</v>
+        <v>23.036659</v>
       </c>
       <c r="I5">
-        <v>0.07103676969057639</v>
+        <v>0.06427717328589268</v>
       </c>
       <c r="J5">
-        <v>0.05446630490984555</v>
+        <v>0.05102762964987022</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>260.1119933799925</v>
+        <v>150.5186906377782</v>
       </c>
       <c r="R5">
-        <v>1040.44797351997</v>
+        <v>602.0747625511129</v>
       </c>
       <c r="S5">
-        <v>0.02093909632961065</v>
+        <v>0.01233398720189537</v>
       </c>
       <c r="T5">
-        <v>0.01190311663489558</v>
+        <v>0.007072876740968507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.878645</v>
+        <v>11.5183295</v>
       </c>
       <c r="H6">
-        <v>23.75729</v>
+        <v>23.036659</v>
       </c>
       <c r="I6">
-        <v>0.07103676969057639</v>
+        <v>0.06427717328589268</v>
       </c>
       <c r="J6">
-        <v>0.05446630490984555</v>
+        <v>0.05102762964987022</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>12.22348602389833</v>
+        <v>21.46093232718416</v>
       </c>
       <c r="R6">
-        <v>73.34091614338999</v>
+        <v>128.765593963105</v>
       </c>
       <c r="S6">
-        <v>0.0009839944249096818</v>
+        <v>0.001758578044644484</v>
       </c>
       <c r="T6">
-        <v>0.0008390476998205346</v>
+        <v>0.00151267455676042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.878645</v>
+        <v>11.5183295</v>
       </c>
       <c r="H7">
-        <v>23.75729</v>
+        <v>23.036659</v>
       </c>
       <c r="I7">
-        <v>0.07103676969057639</v>
+        <v>0.06427717328589268</v>
       </c>
       <c r="J7">
-        <v>0.05446630490984555</v>
+        <v>0.05102762964987022</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>3.375229866686666</v>
+        <v>1.263576103922667</v>
       </c>
       <c r="R7">
-        <v>20.25137920012</v>
+        <v>7.581456623536</v>
       </c>
       <c r="S7">
-        <v>0.0002717070535455256</v>
+        <v>0.0001035415032403383</v>
       </c>
       <c r="T7">
-        <v>0.0002316834044291595</v>
+        <v>8.906320535353303E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>279.11272</v>
       </c>
       <c r="I8">
-        <v>0.5563840547006929</v>
+        <v>0.5191891952080042</v>
       </c>
       <c r="J8">
-        <v>0.6398978381682568</v>
+        <v>0.6182520002891011</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>53.01597256282666</v>
+        <v>249.3070634505733</v>
       </c>
       <c r="R8">
-        <v>318.0958353769599</v>
+        <v>1495.84238070344</v>
       </c>
       <c r="S8">
-        <v>0.004267802272689864</v>
+        <v>0.02042902523874145</v>
       </c>
       <c r="T8">
-        <v>0.003639136147054858</v>
+        <v>0.01757241698323826</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>279.11272</v>
       </c>
       <c r="I9">
-        <v>0.5563840547006929</v>
+        <v>0.5191891952080042</v>
       </c>
       <c r="J9">
-        <v>0.6398978381682568</v>
+        <v>0.6182520002891011</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
-        <v>4661.407109739601</v>
+        <v>4661.4071097396</v>
       </c>
       <c r="R9">
-        <v>41952.6639876564</v>
+        <v>41952.66398765639</v>
       </c>
       <c r="S9">
-        <v>0.3752447214526525</v>
+        <v>0.3819707399176786</v>
       </c>
       <c r="T9">
-        <v>0.4799542747920716</v>
+        <v>0.4928391618387619</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>279.11272</v>
       </c>
       <c r="I10">
-        <v>0.5563840547006929</v>
+        <v>0.5191891952080042</v>
       </c>
       <c r="J10">
-        <v>0.6398978381682568</v>
+        <v>0.6182520002891011</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>37.69367663560889</v>
+        <v>25.90224965396444</v>
       </c>
       <c r="R10">
-        <v>339.24308972048</v>
+        <v>233.12024688568</v>
       </c>
       <c r="S10">
-        <v>0.003034352687217993</v>
+        <v>0.002122513917564676</v>
       </c>
       <c r="T10">
-        <v>0.003881068700498281</v>
+        <v>0.002738581443042276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>279.11272</v>
       </c>
       <c r="I11">
-        <v>0.5563840547006929</v>
+        <v>0.5191891952080042</v>
       </c>
       <c r="J11">
-        <v>0.6398978381682568</v>
+        <v>0.6182520002891011</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>2037.285284556493</v>
+        <v>1215.792074558173</v>
       </c>
       <c r="R11">
-        <v>12223.71170733896</v>
+        <v>7294.752447349038</v>
       </c>
       <c r="S11">
-        <v>0.1640020987494686</v>
+        <v>0.09962592568555495</v>
       </c>
       <c r="T11">
-        <v>0.1398438652069724</v>
+        <v>0.08569514639238508</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>279.11272</v>
       </c>
       <c r="I12">
-        <v>0.5563840547006929</v>
+        <v>0.5191891952080042</v>
       </c>
       <c r="J12">
-        <v>0.6398978381682568</v>
+        <v>0.6182520002891011</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>95.73848509972443</v>
+        <v>173.3474515720444</v>
       </c>
       <c r="R12">
-        <v>861.6463658975199</v>
+        <v>1560.1270641484</v>
       </c>
       <c r="S12">
-        <v>0.007706977813304943</v>
+        <v>0.01420464953628919</v>
       </c>
       <c r="T12">
-        <v>0.009857558909566407</v>
+        <v>0.01832760167228222</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,40 +1231,40 @@
         <v>279.11272</v>
       </c>
       <c r="I13">
-        <v>0.5563840547006929</v>
+        <v>0.5191891952080042</v>
       </c>
       <c r="J13">
-        <v>0.6398978381682568</v>
+        <v>0.6182520002891011</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>26.43594418712889</v>
+        <v>10.20634584476444</v>
       </c>
       <c r="R13">
-        <v>237.92349768416</v>
+        <v>91.85711260287999</v>
       </c>
       <c r="S13">
-        <v>0.002128101725358892</v>
+        <v>0.0008363409121753758</v>
       </c>
       <c r="T13">
-        <v>0.002721934412093415</v>
+        <v>0.001079091959391471</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02358366666666667</v>
+        <v>74.6205215</v>
       </c>
       <c r="H14">
-        <v>0.07075100000000001</v>
+        <v>149.241043</v>
       </c>
       <c r="I14">
-        <v>0.0001410352357073828</v>
+        <v>0.4164142197129523</v>
       </c>
       <c r="J14">
-        <v>0.0001622047606724708</v>
+        <v>0.3305781741512238</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N14">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O14">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P14">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q14">
-        <v>0.01343877511133333</v>
+        <v>199.9560223014778</v>
       </c>
       <c r="R14">
-        <v>0.080632650668</v>
+        <v>799.824089205911</v>
       </c>
       <c r="S14">
-        <v>1.081825574252154E-06</v>
+        <v>0.01638504168192208</v>
       </c>
       <c r="T14">
-        <v>9.224678887450143E-07</v>
+        <v>0.009395938094865013</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02358366666666667</v>
+        <v>74.6205215</v>
       </c>
       <c r="H15">
-        <v>0.07075100000000001</v>
+        <v>149.241043</v>
       </c>
       <c r="I15">
-        <v>0.0001410352357073828</v>
+        <v>0.4164142197129523</v>
       </c>
       <c r="J15">
-        <v>0.0001622047606724708</v>
+        <v>0.3305781741512238</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
         <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P15">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q15">
-        <v>1.181598654555</v>
+        <v>3738.668335709422</v>
       </c>
       <c r="R15">
-        <v>10.634387890995</v>
+        <v>22432.01001425653</v>
       </c>
       <c r="S15">
-        <v>9.511905902209196E-05</v>
+        <v>0.3063585472965694</v>
       </c>
       <c r="T15">
-        <v>0.0001216614022313776</v>
+        <v>0.2635201668489441</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02358366666666667</v>
+        <v>74.6205215</v>
       </c>
       <c r="H16">
-        <v>0.07075100000000001</v>
+        <v>149.241043</v>
       </c>
       <c r="I16">
-        <v>0.0001410352357073828</v>
+        <v>0.4164142197129523</v>
       </c>
       <c r="J16">
-        <v>0.0001622047606724708</v>
+        <v>0.3305781741512238</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N16">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O16">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P16">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q16">
-        <v>0.009554796770444447</v>
+        <v>20.77482578223616</v>
       </c>
       <c r="R16">
-        <v>0.08599317093400002</v>
+        <v>124.648954693417</v>
       </c>
       <c r="S16">
-        <v>7.691641103757661E-07</v>
+        <v>0.00170235626043504</v>
       </c>
       <c r="T16">
-        <v>9.837942592833245E-07</v>
+        <v>0.001464314313228269</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02358366666666667</v>
+        <v>74.6205215</v>
       </c>
       <c r="H17">
-        <v>0.07075100000000001</v>
+        <v>149.241043</v>
       </c>
       <c r="I17">
-        <v>0.0001410352357073828</v>
+        <v>0.4164142197129523</v>
       </c>
       <c r="J17">
-        <v>0.0001622047606724708</v>
+        <v>0.3305781741512238</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N17">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O17">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P17">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q17">
-        <v>0.5164220791071668</v>
+        <v>975.12258100345</v>
       </c>
       <c r="R17">
-        <v>3.098532474643001</v>
+        <v>3900.4903240138</v>
       </c>
       <c r="S17">
-        <v>4.15721379112484E-05</v>
+        <v>0.0799046907956365</v>
       </c>
       <c r="T17">
-        <v>3.544837837293301E-05</v>
+        <v>0.04582103254784389</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02358366666666667</v>
+        <v>74.6205215</v>
       </c>
       <c r="H18">
-        <v>0.07075100000000001</v>
+        <v>149.241043</v>
       </c>
       <c r="I18">
-        <v>0.0001410352357073828</v>
+        <v>0.4164142197129523</v>
       </c>
       <c r="J18">
-        <v>0.0001622047606724708</v>
+        <v>0.3305781741512238</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N18">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O18">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P18">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q18">
-        <v>0.02426830837122222</v>
+        <v>139.0328312912641</v>
       </c>
       <c r="R18">
-        <v>0.218414775341</v>
+        <v>834.1969877475848</v>
       </c>
       <c r="S18">
-        <v>1.95360636831291E-06</v>
+        <v>0.0113927988246752</v>
       </c>
       <c r="T18">
-        <v>2.49874728178183E-06</v>
+        <v>0.009799733918468292</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02358366666666667</v>
+        <v>74.6205215</v>
       </c>
       <c r="H19">
-        <v>0.07075100000000001</v>
+        <v>149.241043</v>
       </c>
       <c r="I19">
-        <v>0.0001410352357073828</v>
+        <v>0.4164142197129523</v>
       </c>
       <c r="J19">
-        <v>0.0001622047606724708</v>
+        <v>0.3305781741512238</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N19">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O19">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P19">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q19">
-        <v>0.006701125936444445</v>
+        <v>8.185970702578667</v>
       </c>
       <c r="R19">
-        <v>0.06031013342800001</v>
+        <v>49.115824215472</v>
       </c>
       <c r="S19">
-        <v>5.394427211015929E-07</v>
+        <v>0.000670784853714072</v>
       </c>
       <c r="T19">
-        <v>6.89970638350059E-07</v>
+        <v>0.0005769884278742179</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>53.592882</v>
+        <v>0.008067</v>
       </c>
       <c r="H20">
-        <v>107.185764</v>
+        <v>0.024201</v>
       </c>
       <c r="I20">
-        <v>0.3204965899467689</v>
+        <v>4.501728804487631E-05</v>
       </c>
       <c r="J20">
-        <v>0.2457356248973998</v>
+        <v>5.360671723953153E-05</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N20">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O20">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P20">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q20">
-        <v>30.539046321588</v>
+        <v>0.0216166437795</v>
       </c>
       <c r="R20">
-        <v>122.156185286352</v>
+        <v>0.129699862677</v>
       </c>
       <c r="S20">
-        <v>0.002458402722737965</v>
+        <v>1.771337543494191E-06</v>
       </c>
       <c r="T20">
-        <v>0.00139751276194826</v>
+        <v>1.523649883858211E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>53.592882</v>
+        <v>0.008067</v>
       </c>
       <c r="H21">
-        <v>107.185764</v>
+        <v>0.024201</v>
       </c>
       <c r="I21">
-        <v>0.3204965899467689</v>
+        <v>4.501728804487631E-05</v>
       </c>
       <c r="J21">
-        <v>0.2457356248973998</v>
+        <v>5.360671723953153E-05</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
         <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P21">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q21">
-        <v>2685.13281501003</v>
+        <v>0.404176181805</v>
       </c>
       <c r="R21">
-        <v>16110.79689006018</v>
+        <v>3.637585636245</v>
       </c>
       <c r="S21">
-        <v>0.2161540263510908</v>
+        <v>3.311950052562184E-05</v>
       </c>
       <c r="T21">
-        <v>0.1843135835179928</v>
+        <v>4.273255821397131E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>53.592882</v>
+        <v>0.008067</v>
       </c>
       <c r="H22">
-        <v>107.185764</v>
+        <v>0.024201</v>
       </c>
       <c r="I22">
-        <v>0.3204965899467689</v>
+        <v>4.501728804487631E-05</v>
       </c>
       <c r="J22">
-        <v>0.2457356248973998</v>
+        <v>5.360671723953153E-05</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N22">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O22">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P22">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q22">
-        <v>21.712870313596</v>
+        <v>0.002245903891</v>
       </c>
       <c r="R22">
-        <v>130.277221881576</v>
+        <v>0.020213135019</v>
       </c>
       <c r="S22">
-        <v>0.001747892810250176</v>
+        <v>1.840366118712996E-07</v>
       </c>
       <c r="T22">
-        <v>0.001490420478863864</v>
+        <v>2.374539200616371E-07</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>53.592882</v>
+        <v>0.008067</v>
       </c>
       <c r="H23">
-        <v>107.185764</v>
+        <v>0.024201</v>
       </c>
       <c r="I23">
-        <v>0.3204965899467689</v>
+        <v>4.501728804487631E-05</v>
       </c>
       <c r="J23">
-        <v>0.2457356248973998</v>
+        <v>5.360671723953153E-05</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N23">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O23">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P23">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q23">
-        <v>1173.547266375813</v>
+        <v>0.1054175674845</v>
       </c>
       <c r="R23">
-        <v>4694.189065503252</v>
+        <v>0.6325054049069999</v>
       </c>
       <c r="S23">
-        <v>0.0944709197706857</v>
+        <v>8.638255639213129E-06</v>
       </c>
       <c r="T23">
-        <v>0.05370329067382652</v>
+        <v>7.430360887322195E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>53.592882</v>
+        <v>0.008067</v>
       </c>
       <c r="H24">
-        <v>107.185764</v>
+        <v>0.024201</v>
       </c>
       <c r="I24">
-        <v>0.3204965899467689</v>
+        <v>4.501728804487631E-05</v>
       </c>
       <c r="J24">
-        <v>0.2457356248973998</v>
+        <v>5.360671723953153E-05</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N24">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O24">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P24">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q24">
-        <v>55.14870122875399</v>
+        <v>0.015030420955</v>
       </c>
       <c r="R24">
-        <v>330.892207372524</v>
+        <v>0.135273788595</v>
       </c>
       <c r="S24">
-        <v>0.004439487593310722</v>
+        <v>1.231641192947906E-06</v>
       </c>
       <c r="T24">
-        <v>0.0037855314616148</v>
+        <v>1.589129610685253E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>53.592882</v>
+        <v>0.008067</v>
       </c>
       <c r="H25">
-        <v>107.185764</v>
+        <v>0.024201</v>
       </c>
       <c r="I25">
-        <v>0.3204965899467689</v>
+        <v>4.501728804487631E-05</v>
       </c>
       <c r="J25">
-        <v>0.2457356248973998</v>
+        <v>5.360671723953153E-05</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N25">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O25">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P25">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q25">
-        <v>15.228024405832</v>
+        <v>0.0008849606559999999</v>
       </c>
       <c r="R25">
-        <v>91.36814643499198</v>
+        <v>0.007964645904000001</v>
       </c>
       <c r="S25">
-        <v>0.001225860698693583</v>
+        <v>7.251653172795661E-08</v>
       </c>
       <c r="T25">
-        <v>0.001045286003153577</v>
+        <v>9.356472363292146E-08</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>8.606016</v>
+        <v>0.01333133333333333</v>
       </c>
       <c r="H26">
-        <v>25.818048</v>
+        <v>0.039994</v>
       </c>
       <c r="I26">
-        <v>0.05146576705890407</v>
+        <v>7.439450510585445E-05</v>
       </c>
       <c r="J26">
-        <v>0.05919082835395066</v>
+        <v>8.858919256550655E-05</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N26">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O26">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P26">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q26">
-        <v>4.904000521344</v>
+        <v>0.03572315405633334</v>
       </c>
       <c r="R26">
-        <v>29.424003128064</v>
+        <v>0.214338924338</v>
       </c>
       <c r="S26">
-        <v>0.000394773566503225</v>
+        <v>2.927270514214565E-06</v>
       </c>
       <c r="T26">
-        <v>0.0003366216764438303</v>
+        <v>2.517947748234588E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>8.606016</v>
+        <v>0.01333133333333333</v>
       </c>
       <c r="H27">
-        <v>25.818048</v>
+        <v>0.039994</v>
       </c>
       <c r="I27">
-        <v>0.05146576705890407</v>
+        <v>7.439450510585445E-05</v>
       </c>
       <c r="J27">
-        <v>0.05919082835395066</v>
+        <v>8.858919256550655E-05</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
         <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P27">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q27">
-        <v>431.1821851286401</v>
+        <v>0.66793199517</v>
       </c>
       <c r="R27">
-        <v>3880.639666157761</v>
+        <v>6.01138795653</v>
       </c>
       <c r="S27">
-        <v>0.03471029994695768</v>
+        <v>5.473250295532084E-05</v>
       </c>
       <c r="T27">
-        <v>0.04439597917424508</v>
+        <v>7.061881464441836E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>8.606016</v>
+        <v>0.01333133333333333</v>
       </c>
       <c r="H28">
-        <v>25.818048</v>
+        <v>0.039994</v>
       </c>
       <c r="I28">
-        <v>0.05146576705890407</v>
+        <v>7.439450510585445E-05</v>
       </c>
       <c r="J28">
-        <v>0.05919082835395066</v>
+        <v>8.858919256550655E-05</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N28">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O28">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P28">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q28">
-        <v>3.486681483648001</v>
+        <v>0.003711527631777778</v>
       </c>
       <c r="R28">
-        <v>31.380133352832</v>
+        <v>0.033403748686</v>
       </c>
       <c r="S28">
-        <v>0.0002806789433585225</v>
+        <v>3.041345504392693E-07</v>
       </c>
       <c r="T28">
-        <v>0.0003590005428658438</v>
+        <v>3.9241073009153E-07</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>8.606016</v>
+        <v>0.01333133333333333</v>
       </c>
       <c r="H29">
-        <v>25.818048</v>
+        <v>0.039994</v>
       </c>
       <c r="I29">
-        <v>0.05146576705890407</v>
+        <v>7.439450510585445E-05</v>
       </c>
       <c r="J29">
-        <v>0.05919082835395066</v>
+        <v>8.858919256550655E-05</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N29">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O29">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P29">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q29">
-        <v>188.449774938144</v>
+        <v>0.1742105778263333</v>
       </c>
       <c r="R29">
-        <v>1130.698649628864</v>
+        <v>1.045263466958</v>
       </c>
       <c r="S29">
-        <v>0.01517026546699313</v>
+        <v>1.427537688668608E-05</v>
       </c>
       <c r="T29">
-        <v>0.01293561835669526</v>
+        <v>1.227923859871757E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>8.606016</v>
+        <v>0.01333133333333333</v>
       </c>
       <c r="H30">
-        <v>25.818048</v>
+        <v>0.039994</v>
       </c>
       <c r="I30">
-        <v>0.05146576705890407</v>
+        <v>7.439450510585445E-05</v>
       </c>
       <c r="J30">
-        <v>0.05919082835395066</v>
+        <v>8.858919256550655E-05</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N30">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O30">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P30">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q30">
-        <v>8.855851513152</v>
+        <v>0.02483891804777778</v>
       </c>
       <c r="R30">
-        <v>79.70266361836801</v>
+        <v>0.22355026243</v>
       </c>
       <c r="S30">
-        <v>0.0007128987998785654</v>
+        <v>2.035381094614212E-06</v>
       </c>
       <c r="T30">
-        <v>0.0009118284866774013</v>
+        <v>2.62615799552688E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,433 +2326,61 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>8.606016</v>
+        <v>0.01333133333333333</v>
       </c>
       <c r="H31">
-        <v>25.818048</v>
+        <v>0.039994</v>
       </c>
       <c r="I31">
-        <v>0.05146576705890407</v>
+        <v>7.439450510585445E-05</v>
       </c>
       <c r="J31">
-        <v>0.05919082835395066</v>
+        <v>8.858919256550655E-05</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N31">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O31">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P31">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q31">
-        <v>2.445336335616</v>
+        <v>0.001462465041777778</v>
       </c>
       <c r="R31">
-        <v>22.008027020544</v>
+        <v>0.013162185376</v>
       </c>
       <c r="S31">
-        <v>0.0001968503352129515</v>
+        <v>1.198391045794759E-07</v>
       </c>
       <c r="T31">
-        <v>0.0002517801170232571</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.07955966666666668</v>
-      </c>
-      <c r="H32">
-        <v>0.238679</v>
-      </c>
-      <c r="I32">
-        <v>0.0004757833673503189</v>
-      </c>
-      <c r="J32">
-        <v>0.0005471989098746966</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.569834</v>
-      </c>
-      <c r="N32">
-        <v>1.139668</v>
-      </c>
-      <c r="O32">
-        <v>0.007670604929513537</v>
-      </c>
-      <c r="P32">
-        <v>0.005687058042690201</v>
-      </c>
-      <c r="Q32">
-        <v>0.04533580309533334</v>
-      </c>
-      <c r="R32">
-        <v>0.272014818572</v>
-      </c>
-      <c r="S32">
-        <v>3.649546242977907E-06</v>
-      </c>
-      <c r="T32">
-        <v>3.111951961354204E-06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.07955966666666668</v>
-      </c>
-      <c r="H33">
-        <v>0.238679</v>
-      </c>
-      <c r="I33">
-        <v>0.0004757833673503189</v>
-      </c>
-      <c r="J33">
-        <v>0.0005471989098746966</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>50.10241500000001</v>
-      </c>
-      <c r="N33">
-        <v>150.307245</v>
-      </c>
-      <c r="O33">
-        <v>0.6744347151618421</v>
-      </c>
-      <c r="P33">
-        <v>0.7500482829664926</v>
-      </c>
-      <c r="Q33">
-        <v>3.986131436595001</v>
-      </c>
-      <c r="R33">
-        <v>35.87518292935501</v>
-      </c>
-      <c r="S33">
-        <v>0.0003208848198376544</v>
-      </c>
-      <c r="T33">
-        <v>0.0004104256027926527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.07955966666666668</v>
-      </c>
-      <c r="H34">
-        <v>0.238679</v>
-      </c>
-      <c r="I34">
-        <v>0.0004757833673503189</v>
-      </c>
-      <c r="J34">
-        <v>0.0005471989098746966</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.4051446666666667</v>
-      </c>
-      <c r="N34">
-        <v>1.215434</v>
-      </c>
-      <c r="O34">
-        <v>0.005453701739979455</v>
-      </c>
-      <c r="P34">
-        <v>0.00606513800954236</v>
-      </c>
-      <c r="Q34">
-        <v>0.03223317463177779</v>
-      </c>
-      <c r="R34">
-        <v>0.2900985716860001</v>
-      </c>
-      <c r="S34">
-        <v>2.594780578371718E-06</v>
-      </c>
-      <c r="T34">
-        <v>3.318836907061166E-06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.07955966666666668</v>
-      </c>
-      <c r="H35">
-        <v>0.238679</v>
-      </c>
-      <c r="I35">
-        <v>0.0004757833673503189</v>
-      </c>
-      <c r="J35">
-        <v>0.0005471989098746966</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>21.8974465</v>
-      </c>
-      <c r="N35">
-        <v>43.794893</v>
-      </c>
-      <c r="O35">
-        <v>0.2947641963565862</v>
-      </c>
-      <c r="P35">
-        <v>0.2185409246064703</v>
-      </c>
-      <c r="Q35">
-        <v>1.742153544391167</v>
-      </c>
-      <c r="R35">
-        <v>10.452921266347</v>
-      </c>
-      <c r="S35">
-        <v>0.0001402439019168472</v>
-      </c>
-      <c r="T35">
-        <v>0.0001195853557076688</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.07955966666666668</v>
-      </c>
-      <c r="H36">
-        <v>0.238679</v>
-      </c>
-      <c r="I36">
-        <v>0.0004757833673503189</v>
-      </c>
-      <c r="J36">
-        <v>0.0005471989098746966</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1.029030333333333</v>
-      </c>
-      <c r="N36">
-        <v>3.087091</v>
-      </c>
-      <c r="O36">
-        <v>0.01385190274270336</v>
-      </c>
-      <c r="P36">
-        <v>0.01540489484662773</v>
-      </c>
-      <c r="Q36">
-        <v>0.08186931030988889</v>
-      </c>
-      <c r="R36">
-        <v>0.7368237927890001</v>
-      </c>
-      <c r="S36">
-        <v>6.590504931132522E-06</v>
-      </c>
-      <c r="T36">
-        <v>8.429541666809027E-06</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.07955966666666668</v>
-      </c>
-      <c r="H37">
-        <v>0.238679</v>
-      </c>
-      <c r="I37">
-        <v>0.0004757833673503189</v>
-      </c>
-      <c r="J37">
-        <v>0.0005471989098746966</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.2841426666666667</v>
-      </c>
-      <c r="N37">
-        <v>0.852428</v>
-      </c>
-      <c r="O37">
-        <v>0.003824879069375389</v>
-      </c>
-      <c r="P37">
-        <v>0.00425370152817691</v>
-      </c>
-      <c r="Q37">
-        <v>0.02260629584577778</v>
-      </c>
-      <c r="R37">
-        <v>0.203456662612</v>
-      </c>
-      <c r="S37">
-        <v>1.819813843335177E-06</v>
-      </c>
-      <c r="T37">
-        <v>2.327620839150736E-06</v>
+        <v>1.546228485176258E-07</v>
       </c>
     </row>
   </sheetData>
